--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>流水號</t>
   </si>
@@ -27,232 +27,139 @@
     <t>content</t>
   </si>
   <si>
-    <t>【H6953】實拍韓國 復古蕾絲花邊背心230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-衣長 52 肩寬 29 胸圍 68 擺圍 69
+    <t>【H6986】實拍韓國清新高質感天絲吊帶a字短洋裝230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+後衣長88 肩帶長 36 腰圍 86 胸圍 86 擺圍194 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6890】實拍韓國簡約基礎款休閒翻領棉質襯衫230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+後衣長 69 肩寬 53 胸圍 114 擺圍116 袖長 18 袖口 40
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6715】實拍韓國初戀夏天的V領洋裝230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+後衣長83 肩寬 34 領圍 62 胸圍 92 腰圍 90 擺圍 186 袖長 24 袖肥 42 袖口 28
 手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
   </si>
   <si>
-    <t>【H6931】實拍韓國夏季無袖吊帶連衣裙230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-後衣長 80 ”肩帶長 22 ”腰圍 62 胸圍 74 擺圍 248 後領口 23 前領口 22
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6649】實拍韓國休閒簡約寬鬆運動短袖套裝230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-上衣S 後衣長 70 肩寬 54 胸圍 118 擺圍 118 袖長 25
-褲子S 褲長 40 腰圍 62 坐圍 118 腳口 70
-上衣M 後衣長71 肩寬 55 胸圍 122 擺圍 122 袖長 25.5
-褲子M 褲長 40.7 腰圍 66 坐圍 122 腳口 72
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H643】實拍韓國夏天插肩袖防曬針織T恤(仿亞麻）230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-後衣長 65 領圍 56 胸圍 128 擺圍 126 袖長 68 袖肥 37 袖口 23
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6929】實拍韓國學院A字百褶裙230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-S 裙長 36 腰圍 64 腳圍 180
-M 裙長 37 腰圍 68 腳圍 184
-L 裙長 38 腰圍 72 腳圍 188
-XL 裙長 39 腰圍 14 腳圍 192
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6905】實拍韓國夏天方領燈籠袖雪紡上衣230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-後衣長 62 胸圍 116 擺圍 138 袖長 27 袖口 26
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H963】實拍韓國高腰卷邊牛仔褲230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-S 褲長 38 腰圍 64 臀圍 102 腿圍 72 腳圍 72
-M 褲長 38.7 腰圍 68 臀圍 106 腿圍 74.2 腳圍 74
-L 褲長 39.4 腰圍 72 臀圍 110 腿圍 76.4 腳圍 76
-XL 褲長 40.1 腰圍 76 臀圍 114 腿圍 78.6 腳圍 78
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H722】實拍韓國復古水洗做舊牛仔襯衫230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-後衣長 70 肩寬 47.5 胸圍 122 擺圍 125 袖長 22
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H8078】實拍韓國基礎針織抹胸吊帶230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-後中長 31 胸圍 62 擺圍 65 扁帶長 26
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6718】實拍韓國印花寬鬆圓領T恤230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-肩寬 47 胸圍 106 擺圍 106 袖長 20.5 衣長 67
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6677】實拍韓國碎鑽星星圖案T恤230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-肩寬 56 胸圍 112 擺圍 112 袖長 21.5 衣長 70
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H915】實拍韓國櫻桃印花牛仔短褲230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-S 褲長 32 腰圍 64 臀圍 92 腿圍 64 腳圍 62
-M 褲長 32.7 腰圍 68 臀圍 96 腿圍 66.2 腳圍 64
-L 褲長 33.4 腰圍 72 臀圍 100 腿圍 68.4 腳圍 66
-XL 褲長 34.1 腰圍 76 臀圍 104 腿圍 70.6 腳圍 68
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6952】實拍韓國休閒印花圖案開叉背心230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-衣長 了71 肩寬 53 胸圍 128 擺圍 130
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6659】實拍韓國休閒字母圖案T恤230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-肩寬 46.5 胸圍 106 擺圍 108 袖長 21 衣長 65
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6912】實拍韓國波邊彩色字母圖案針織T恤230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-肩寬 53.3 胸圍 80 擺圍 78 袖長 17 衣長 59
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H619】實拍韓國簡約高腰A字牛仔褲裙230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-S 裙長 32 腰圍 66 臀圍 90 腳圍 58
-M 裙長 32.7 腰圍 68 臀圍 94 腳圍 60
-L 裙長 33.4 腰圍 74 臀圍 98 腳圍 62
-XL 裙長 34.1 腰圍 78 臀圍 102 腳圍 64
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6662】實拍韓國夏天娃娃領拼接綁帶洋裝230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-後衣長 83 肩寬 36 胸圍 106 擺圍 138 袖長 27 袖肥 46 袖口 30
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6868】實拍韓國草莓蛋糕插肩袖T恤230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-胸圍 108 擺圍 110 袖長 37 衣長 64
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H671】實拍韓國復古高腰微喇叭牛仔褲230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-S 褲長 90 腰圍 62 臀圍 86 腿圍 52 膝圍 36 腳圍 40 
-M 褲長 91 腰圍 66 臀圍 90 腿圍 54.2 膝圍 37.6 腳圍 41.6 
-L 褲長 92 腰圍 70 臀圍 94 腿圍 56.4 膝圍 392 腳圍 43.2 
-XL 褲長 93 腰圍 74 臀圍 98 腿圍 58.6 膝圍408 腳圍 44.8 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6862】實拍韓國 條紋針織抹胸吊帶230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-衣長 36 肩帶長 32 胸圍 60 擺圍 60
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H938】實拍韓國高腰簡約洗舊休閒直筒牛仔褲230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-S 褲長 100 腰圍 64 臀圍 94 腿圍 62 膝圍 50 腳圍 46
-M 褲長 101.5 腰圍 68 臀圍 98 腿圍 64.2 膝圍 52 腳圍 48
-L 褲長 103 腰圍 72 臀圍 102 腿圍 66.4 膝圍 54 腳圍 50
-XL 褲長 104.5 腰圍 76 臀圍 106 腿圍 68.6 膝圍 56 腳圍 52
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6937】實拍韓國公主袖方領針織衫T恤230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-胸圍 68 擺圍 72 袖長 20 衣長 50
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H658】實拍韓國卡通印花圖案撞色T恤230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-後衣長53 肩寬 49 領園 45 胸圍 50 擺圍 62 袖長 20 袖肥 38 袖口 22
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6641】實拍韓國夏季清新感吊帶雪紡洋裝230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-S 後衣長 112後中長 96 腰圍 82 胸圍 88 擺圍 236 肩帶長 38
-M 後衣長 113.5後中長 97:5 腰圍 87 胸圍 93 擺圍 241 肩帶長 38
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H667】實拍韓國簡約方領假兩件針織T恤230517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-衣長 51 肩寬 35 胸圍 80 袖長 21
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H051】實拍韓國小眾個性褶皺抽繩單肩斜背包230517</t>
-  </si>
-  <si>
-    <t>揹帶長100CM 23CM*25CM
+    <t>【H6724】實拍韓國卷邊袖簡約寬鬆棉質長洋裝230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+衣長 118 肩寬 51 胸圍 114 袖長 24.5
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6951】實拍韓國立體口袋高腰工裝裙230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+S 裙長 49 腰圍 64 臂圍92 腳圍 100
+M 裙長 50 腰圍 68 臂圍96 腳圍 104
+L 裙長 51 腰圍 72 臂圍100 腳圍 108
+XL 裙長 52 腰圍 76 臂圍104 腳圍 112
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H683】實拍韓國卷邊高腰A字牛仔褲230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+S 褲長 33.5 腰圍 62 臀圍 94 腿圍 68 腳圍 66
+M 褲長 34.2 腰圍 66 臀圍 98 腿圍 70.2 腳圍 68
+L 褲長 34.9 腰圍 70 臀圍 102 腿圍 72.4 腳圍 70
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6981】實拍韓國好質感慵懶綁帶垂感吊帶洋裝230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+後衣長108肩帶長17 腰圍90 胸圍88 擺圍133 綁帶長50 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6914】實拍韓國花邊字母圖案T恤230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+肩寬 51 胸圍 102 擺圍104 袖長 18 衣長 61
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6675】實拍韓國氣質方領泡泡袖襯衫230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+後衣長 57.5 肩寬 36 胸圍 102 擺圍104 袖長 29
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H793】實拍韓國復古做舊翻領牛仔洋裝230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+衣長 108 肩寬 48 胸圍 122 袖長 20
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6933】實拍韓國氣質褶皺珍珠防曬衫230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+後衣長 41 扁寬 40-44 胸圍 94-100 擺圍96-102 袖長 56.5 袖口 23
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H708】實拍韓國夏天高腰條紋直筒牛仔褲230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+S 褲長 102 腰圍 64 臀圍 98 腿圍 65
+M 褲長 103.5 腰圍 68 臀圍 102 腿圍 67.2 
+L 褲長 105 腰圍 72 臀圍 106 腿圍 69.4 
+XL 褲長 106.5 腰圍 76 臀圍 110 腿圍 71.6 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6925】實拍韓國設計感簡約開叉方領T恤230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+肩寬 34 胸圍 74 擺圍74 袖長 14.5 衣長 45
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6936】實拍韓國基礎款棉質舒適背心（含胸墊）230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+衣長 18.5 胸圍 64 扁帶長 24 擺圍58
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6950】實拍韓國簡約小圓領休閒正肩T恤230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+胸圍 78 擺圍 72 袖長 23.5 衣長 51
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【H6924】實拍韓國簡約休閒直筒抽繩闊腿褲230526</t>
+  </si>
+  <si>
+    <t>【尺 碼 信 息 x Size info】
+褲長 100 腰圍 62-80 臂圍 102 腿圍60.5 膚圍54.5 腳圍53
 手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
   </si>
 </sst>
@@ -286,12 +193,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,12 +219,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -321,12 +231,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,13 +528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -629,236 +548,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="82.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="81">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="93.9">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="81">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="163.30000000000001">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="92.6">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="82.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="81">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105.45">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="150.44999999999999">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="82.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="127.3">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="151.75">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" ht="81">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="82.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="81">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="82.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="81">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="82.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="81">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="82.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="92.6">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="151.75">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="150.44999999999999">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.9">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" ht="82.3">
-      <c r="A15" s="3" t="s">
+    <row r="14" spans="1:2" ht="81">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="82.3">
-      <c r="A16" s="3" t="s">
+    <row r="15" spans="1:2" ht="81">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="82.3">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:2" ht="81">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="151.75">
-      <c r="A18" s="3" t="s">
+    <row r="17" spans="1:2" ht="92.6">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="93.9">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="82.3">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="163.30000000000001">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="82.3">
-      <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="163.30000000000001">
-      <c r="A23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="82.3">
-      <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="93.9">
-      <c r="A25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="117">
-      <c r="A26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="70.75">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="63.45">
-      <c r="A28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.9"/>
-    <row r="30" spans="1:2" ht="15.9"/>
-    <row r="31" spans="1:2" ht="15.9"/>
-    <row r="32" spans="1:2" ht="15.9"/>
-    <row r="33" ht="15.9"/>
-    <row r="34" ht="15.9"/>
-    <row r="35" ht="15.9"/>
-    <row r="36" ht="15.9"/>
-    <row r="37" ht="15.9"/>
-    <row r="38" ht="15.9"/>
-    <row r="39" ht="15.9"/>
-    <row r="45" ht="15.9"/>
-    <row r="46" ht="15.9"/>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:O1 C2:O46" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:O1 C45:O46 D2:O44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16183" windowHeight="6531"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>流水號</t>
   </si>
@@ -27,140 +27,138 @@
     <t>content</t>
   </si>
   <si>
-    <t>【H6986】實拍韓國清新高質感天絲吊帶a字短洋裝230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-後衣長88 肩帶長 36 腰圍 86 胸圍 86 擺圍194 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6890】實拍韓國簡約基礎款休閒翻領棉質襯衫230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-後衣長 69 肩寬 53 胸圍 114 擺圍116 袖長 18 袖口 40
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6715】實拍韓國初戀夏天的V領洋裝230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-後衣長83 肩寬 34 領圍 62 胸圍 92 腰圍 90 擺圍 186 袖長 24 袖肥 42 袖口 28
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6724】實拍韓國卷邊袖簡約寬鬆棉質長洋裝230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-衣長 118 肩寬 51 胸圍 114 袖長 24.5
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6951】實拍韓國立體口袋高腰工裝裙230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-S 裙長 49 腰圍 64 臂圍92 腳圍 100
-M 裙長 50 腰圍 68 臂圍96 腳圍 104
-L 裙長 51 腰圍 72 臂圍100 腳圍 108
-XL 裙長 52 腰圍 76 臂圍104 腳圍 112
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H683】實拍韓國卷邊高腰A字牛仔褲230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-S 褲長 33.5 腰圍 62 臀圍 94 腿圍 68 腳圍 66
-M 褲長 34.2 腰圍 66 臀圍 98 腿圍 70.2 腳圍 68
-L 褲長 34.9 腰圍 70 臀圍 102 腿圍 72.4 腳圍 70
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6981】實拍韓國好質感慵懶綁帶垂感吊帶洋裝230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-後衣長108肩帶長17 腰圍90 胸圍88 擺圍133 綁帶長50 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6914】實拍韓國花邊字母圖案T恤230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-肩寬 51 胸圍 102 擺圍104 袖長 18 衣長 61
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6675】實拍韓國氣質方領泡泡袖襯衫230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-後衣長 57.5 肩寬 36 胸圍 102 擺圍104 袖長 29
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H793】實拍韓國復古做舊翻領牛仔洋裝230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-衣長 108 肩寬 48 胸圍 122 袖長 20
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6933】實拍韓國氣質褶皺珍珠防曬衫230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-後衣長 41 扁寬 40-44 胸圍 94-100 擺圍96-102 袖長 56.5 袖口 23
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H708】實拍韓國夏天高腰條紋直筒牛仔褲230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-S 褲長 102 腰圍 64 臀圍 98 腿圍 65
-M 褲長 103.5 腰圍 68 臀圍 102 腿圍 67.2 
-L 褲長 105 腰圍 72 臀圍 106 腿圍 69.4 
-XL 褲長 106.5 腰圍 76 臀圍 110 腿圍 71.6 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6925】實拍韓國設計感簡約開叉方領T恤230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-肩寬 34 胸圍 74 擺圍74 袖長 14.5 衣長 45
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6936】實拍韓國基礎款棉質舒適背心（含胸墊）230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-衣長 18.5 胸圍 64 扁帶長 24 擺圍58
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6950】實拍韓國簡約小圓領休閒正肩T恤230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-胸圍 78 擺圍 72 袖長 23.5 衣長 51
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【H6924】實拍韓國簡約休閒直筒抽繩闊腿褲230526</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size info】
-褲長 100 腰圍 62-80 臂圍 102 腿圍60.5 膚圍54.5 腳圍53
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+    <t>【Y80756】實拍韓國夏季簡約打褶棉麻洋裝230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍106 腰圍132 衣長113
+L 胸圍 110 腰圍 136 衣長 114
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y9696】實拍韓國夏季復古闊腿牛仔短褲230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 腰圍 65 臀圍 98 腿圍 72 褲腳圍 72 褲長 40
+L 腰圍 69 臀圍102 腿圍 74 褲腳圍 74 褲長 41
+手L平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y9091】實拍韓國法式高腰復古顯瘦大擺長裙230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 腰圍66 裙長 91 
+L 腰圍 70 裙長 92
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y80815】實拍韓國夏季設計感小眾翻領泡泡袖襯衫230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 肩寬 59 胸圍 134 下襬圍 110 衣長 52
+L 肩寬 60 胸圍 138 下襬圍 114 衣長 53
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y80816】實拍韓國設計師款垂感不規則雪紡百褶裙230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 腰圍 60 裙長 86 
+L 腰圍 64 裙長 87
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y80811】實拍韓國立領L裝中性防曬薄款襯衫外套230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 肩寬 50 袖長 55 胸圍 102 下襬圍 104 衣長 50
+L 肩寬 51 袖長56 胸圍106 下襬圍 108 衣長51
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y9090】實拍韓國短袖中性豎條紋襯衫230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 肩寬 59 胸圍 128 下襬圍 134 衣長 65 / 70
+L 肩寬 59 胸圍 132 下襬圍 138 衣長 66 / 171
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y9695】實拍韓國高腰L裝顯瘦闊腿百搭休閒褲230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 腰圍 64 臀圍 88 腿圍 66 褲腳圍 62 褲長 43
+L 腰圍 68 臀圍 92 腿圍 68 褲腳圍 64 褲長 44
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y80819】實拍韓國設計款假兩件墊肩短袖西裝外套230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 肩寬 41 袖長 25 胸圍 100 下襬圍 112 衣長71
+L 肩寬 42 袖長 26 胸圍 104下襬圍 116 衣長 72
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y5970】實拍法式氣質鏤空棉質短袖襯衫230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 肩寬 37 袖長 16 胸圍 112 下襬圍 110 衣長 55
+L 肩寬 38 袖長 17 胸圍 116 下襬圍 114 衣長 56
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y80817】實拍韓國佇麻涼涼防曬長袖襯衫+闊腿短褲 套裝230614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 肩寬56 袖長54 胸圍 122 下襬圍 130 衣長71 / 腰圍60 臀圍102 褲腳圍76 褲長39
+L 肩寬57 袖長55 胸圍 126 下襬圍 134 衣長 72 / 腰圍64 臀圍106 褲腳圍80 褲長40
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y80822】實拍韓國簡約中性條紋防曬襯衫＋鬆緊腰短褲230614</t>
+  </si>
+  <si>
+    <t>襯衫
+M 肩寬55袖長56胸圍 112 下襬圍 122 衣長73 /76 
+L 肩寬56 袖長57 胸圍 116 下襬圍 126 衣長 74 /77
+褲子
+M 腰圍65 臀圍100 褲腳圍74 褲長40
+L腰圍69 臀圍104 褲腳圍76 褲長41
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y6115】實拍韓國翻領短袖襯衫+鬆緊腰長裙230614</t>
+  </si>
+  <si>
+    <t>M 肩寬 51 胸圍98 下襬圍 100 衣長 55/58
+L 肩寬 52 胸圍102 下襬圍 104 衣長56/59
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y9069】實拍韓國法式中性簡約條紋短袖襯衫230614</t>
+  </si>
+  <si>
+    <t>M 肩寬 52 袖長 11 胸圍 118 下襬圍 126 衣長 61
+L 肩寬 53 袖長 12 胸圍 122 下襬圍 130 衣長 62
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準"</t>
+  </si>
+  <si>
+    <t>【Y3156】實拍韓國法式個性圓領小墊肩背心T恤230614</t>
+  </si>
+  <si>
+    <t>肩寬40 胸圍 100 下襬圍90 衣長 66 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準"</t>
   </si>
 </sst>
 </file>
@@ -193,18 +191,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -236,16 +228,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,7 +514,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -548,157 +531,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="81">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="117">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="81">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:2" ht="128.6">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="92.6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:2" ht="82.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="81">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2" ht="151.75">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="150.44999999999999">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:2" ht="105.45">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="127.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:2" ht="117">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="81">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:2" ht="128.6">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="81">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:2" ht="128.6">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="81">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:2" ht="117">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="81">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:2" ht="117">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="92.6">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:2" ht="140.15">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="150.44999999999999">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:2" ht="175.3">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="81">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:2" ht="100.75">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="81">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:2" ht="100.75">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="81">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:2" ht="75.900000000000006">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="92.6">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2"/>

--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>流水號</t>
   </si>
@@ -27,138 +27,79 @@
     <t>content</t>
   </si>
   <si>
-    <t>【Y80756】實拍韓國夏季簡約打褶棉麻洋裝230614</t>
+    <t>【cimYL050】實拍韓國小眾抽繩褶皺設計感顯瘦V領針織衫230628</t>
+  </si>
+  <si>
+    <t>胸圍 86 肩連袖 53 袖長 / 衣長54
+手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim2275】實拍韓國慵懶條紋V領泡泡袖魚尾裙230628</t>
   </si>
   <si>
     <t xml:space="preserve">
-M 胸圍106 腰圍132 衣長113
-L 胸圍 110 腰圍 136 衣長 114
+M 胸圍 98 腰圍 104 肩寬 38 袖長 25 裙長 122 
+L 胸圍 102 腰圍 106 肩寬 40 袖長 27 裙長 124 
 手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
   </si>
   <si>
-    <t>【Y9696】實拍韓國夏季復古闊腿牛仔短褲230614</t>
+    <t>【cim2271】實拍韓國慵懶簡約大扭結寬鬆棉麻背心(棉70麻30)230628</t>
   </si>
   <si>
     <t xml:space="preserve">
-M 腰圍 65 臀圍 98 腿圍 72 褲腳圍 72 褲長 40
-L 腰圍 69 臀圍102 腿圍 74 褲腳圍 74 褲長 41
-手L平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y9091】實拍韓國法式高腰復古顯瘦大擺長裙230614</t>
+M 胸圍 106 肩寬 39 袖長 / 衫長 71 
+L 胸圍 108 肩寬 41 袖長 / 衫長 73 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim2270】實拍韓國慵懶薄款棉麻闊腿長褲230628.html</t>
+  </si>
+  <si>
+    <t>M腰圍 66-70 臀圍100 大腿圍80 褲長93 
+L 腰圍68-72 臀圍102 大腿圍82 褲長95 
+手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim31036】實拍韓國小眾設計感後背鏤空抽繩短袖襯衫230628.html</t>
   </si>
   <si>
     <t xml:space="preserve">
-M 腰圍66 裙長 91 
-L 腰圍 70 裙長 92
+M 胸圍 116 肩寬 56 袖長 / 衫長 52-56 
+L 胸圍 118 肩寬 58 袖長 / 衫長 54-58 
 手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
   </si>
   <si>
-    <t>【Y80815】實拍韓國夏季設計感小眾翻領泡泡袖襯衫230614</t>
+    <t>【cim5515】實拍韓國簡約涼涼～方領亞麻背心(苎麻70棉30)230628.html</t>
   </si>
   <si>
     <t xml:space="preserve">
-M 肩寬 59 胸圍 134 下襬圍 110 衣長 52
-L 肩寬 60 胸圍 138 下襬圍 114 衣長 53
+M 胸圍104 肩寬 35 袖長 / 衫長 56 
+L 胸圍 106 肩寬 37 袖長 / 衫長 58 
 手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
   </si>
   <si>
-    <t>【Y80816】實拍韓國設計師款垂感不規則雪紡百褶裙230614</t>
+    <t>【cim5516】實拍韓國%20清新藍條紋高腰壓褶A傘裙230628.html</t>
+  </si>
+  <si>
+    <t>M腰圍 66-70 臀圍134 大腿圍/ 裙長81 
+L 腰圍68-74 臀圍138 大腿圍/ 裙長83 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cimYL035】實拍韓國露腰繫帶簡約針織衫230628.html</t>
+  </si>
+  <si>
+    <t>胸圍 96 肩連袖 37 袖長23 衣長36-47
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim31037】實拍韓國好氣質~法式褶皺肌理感泡泡袖開叉短袖襯衫（小墊肩）230628</t>
   </si>
   <si>
     <t xml:space="preserve">
-M 腰圍 60 裙長 86 
-L 腰圍 64 裙長 87
+M 胸圍100 肩寬 35 袖長27 衫長 49 
+L 胸圍 104 肩寬 37 袖長 29 衫長51 
 手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y80811】實拍韓國立領L裝中性防曬薄款襯衫外套230614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 肩寬 50 袖長 55 胸圍 102 下襬圍 104 衣長 50
-L 肩寬 51 袖長56 胸圍106 下襬圍 108 衣長51
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y9090】實拍韓國短袖中性豎條紋襯衫230614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 肩寬 59 胸圍 128 下襬圍 134 衣長 65 / 70
-L 肩寬 59 胸圍 132 下襬圍 138 衣長 66 / 171
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y9695】實拍韓國高腰L裝顯瘦闊腿百搭休閒褲230614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 腰圍 64 臀圍 88 腿圍 66 褲腳圍 62 褲長 43
-L 腰圍 68 臀圍 92 腿圍 68 褲腳圍 64 褲長 44
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y80819】實拍韓國設計款假兩件墊肩短袖西裝外套230614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 肩寬 41 袖長 25 胸圍 100 下襬圍 112 衣長71
-L 肩寬 42 袖長 26 胸圍 104下襬圍 116 衣長 72
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y5970】實拍法式氣質鏤空棉質短袖襯衫230614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 肩寬 37 袖長 16 胸圍 112 下襬圍 110 衣長 55
-L 肩寬 38 袖長 17 胸圍 116 下襬圍 114 衣長 56
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y80817】實拍韓國佇麻涼涼防曬長袖襯衫+闊腿短褲 套裝230614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 肩寬56 袖長54 胸圍 122 下襬圍 130 衣長71 / 腰圍60 臀圍102 褲腳圍76 褲長39
-L 肩寬57 袖長55 胸圍 126 下襬圍 134 衣長 72 / 腰圍64 臀圍106 褲腳圍80 褲長40
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y80822】實拍韓國簡約中性條紋防曬襯衫＋鬆緊腰短褲230614</t>
-  </si>
-  <si>
-    <t>襯衫
-M 肩寬55袖長56胸圍 112 下襬圍 122 衣長73 /76 
-L 肩寬56 袖長57 胸圍 116 下襬圍 126 衣長 74 /77
-褲子
-M 腰圍65 臀圍100 褲腳圍74 褲長40
-L腰圍69 臀圍104 褲腳圍76 褲長41
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y6115】實拍韓國翻領短袖襯衫+鬆緊腰長裙230614</t>
-  </si>
-  <si>
-    <t>M 肩寬 51 胸圍98 下襬圍 100 衣長 55/58
-L 肩寬 52 胸圍102 下襬圍 104 衣長56/59
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y9069】實拍韓國法式中性簡約條紋短袖襯衫230614</t>
-  </si>
-  <si>
-    <t>M 肩寬 52 袖長 11 胸圍 118 下襬圍 126 衣長 61
-L 肩寬 53 袖長 12 胸圍 122 下襬圍 130 衣長 62
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準"</t>
-  </si>
-  <si>
-    <t>【Y3156】實拍韓國法式個性圓領小墊肩背心T恤230614</t>
-  </si>
-  <si>
-    <t>肩寬40 胸圍 100 下襬圍90 衣長 66 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準"</t>
   </si>
 </sst>
 </file>
@@ -514,7 +455,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -531,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="117">
+    <row r="2" spans="1:2" ht="70.75">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -539,117 +480,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="128.6">
+    <row r="3" spans="1:2" ht="113.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="82.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="125.6">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="151.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="88.3">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105.45">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="113.15">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="117">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="113.15">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="128.6">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="88.3">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="128.6">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" ht="75.900000000000006">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="117">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="125.6">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="117">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="140.15">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="175.3">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="100.75">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="100.75">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75.900000000000006">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2"/>

--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\outsider\github\GF_playwright\src\electron\crawler\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAE1CBF-32DD-45B4-8A36-21C817CDE257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="13560"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>流水號</t>
   </si>
@@ -27,85 +28,210 @@
     <t>content</t>
   </si>
   <si>
-    <t>【cimYL050】實拍韓國小眾抽繩褶皺設計感顯瘦V領針織衫230628</t>
-  </si>
-  <si>
-    <t>胸圍 86 肩連袖 53 袖長 / 衣長54
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim2275】實拍韓國慵懶條紋V領泡泡袖魚尾裙230628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 98 腰圍 104 肩寬 38 袖長 25 裙長 122 
-L 胸圍 102 腰圍 106 肩寬 40 袖長 27 裙長 124 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim2271】實拍韓國慵懶簡約大扭結寬鬆棉麻背心(棉70麻30)230628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 106 肩寬 39 袖長 / 衫長 71 
-L 胸圍 108 肩寬 41 袖長 / 衫長 73 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim2270】實拍韓國慵懶薄款棉麻闊腿長褲230628.html</t>
-  </si>
-  <si>
-    <t>M腰圍 66-70 臀圍100 大腿圍80 褲長93 
-L 腰圍68-72 臀圍102 大腿圍82 褲長95 
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim31036】實拍韓國小眾設計感後背鏤空抽繩短袖襯衫230628.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 116 肩寬 56 袖長 / 衫長 52-56 
-L 胸圍 118 肩寬 58 袖長 / 衫長 54-58 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim5515】實拍韓國簡約涼涼～方領亞麻背心(苎麻70棉30)230628.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍104 肩寬 35 袖長 / 衫長 56 
-L 胸圍 106 肩寬 37 袖長 / 衫長 58 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim5516】實拍韓國%20清新藍條紋高腰壓褶A傘裙230628.html</t>
-  </si>
-  <si>
-    <t>M腰圍 66-70 臀圍134 大腿圍/ 裙長81 
-L 腰圍68-74 臀圍138 大腿圍/ 裙長83 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cimYL035】實拍韓國露腰繫帶簡約針織衫230628.html</t>
-  </si>
-  <si>
-    <t>胸圍 96 肩連袖 37 袖長23 衣長36-47
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim31037】實拍韓國好氣質~法式褶皺肌理感泡泡袖開叉短袖襯衫（小墊肩）230628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍100 肩寬 35 袖長27 衫長 49 
-L 胸圍 104 肩寬 37 袖長 29 衫長51 
+    <t>【cim5551】實拍韓國早秋法式温柔襯衫~設計感氣質荷葉領寬鬆襯衫230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 94 肩寬 41 袖長 57 衣長 41-48 
+L 胸圍 96 肩寬 43 袖長 59 衣長 43-50 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5538】實拍韓國美式復古立領麂皮絨短外套230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 100 肩寬 42 袖長 60 衣長 46 
+L 胸圍104 肩寬44 袖長62 衣長48
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5539】實拍韓國復古設計感飄帶蝴蝶結短版襯衫230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 124 肩寬 50 袖長 50 衣長 48-51 
+L 胸圍126 肩寬52 袖長 50 衣長49-52 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5552】實拍韓國高級感氣質休閒西裝外套230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 104 肩寬 40 袖長 57 衣長 71 
+L 胸圍106 肩寬 42 袖長59 衣長 73
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim7103】實拍韓國高級感法式重工小香風外套230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 110 肩寬 49 袖長 54 衣長 53 
+L 胸圍114 肩寬51 袖長56 衣長55 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cimFF2380】實拍韓國秋冬小香風條紋寬鬆針織衫230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+胸圍 110 肩寬 42 袖長 61 衣長 52 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim2296】實拍韓國復古休閒男友風黑色皮衣外套230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 120 肩寬 51 袖長 53 衣長 62 
+L 胸圍 124 肩寬53 袖長55 衣長64
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim31056】實拍韓國早秋高級感復古條紋襯衫230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 106 肩寬 50 袖長 60 衣長 54~-60 
+L胸圍108 肩寬52 袖長62 衣長 56-62 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim7105】實拍韓國復古小香風立領拼接時髦氣質西裝外套230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 118 肩寬 46 袖長 55 衣長 48 
+L 胸圍120 肩寬 48 袖長57 衣長50
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim2298】實拍韓國美式復古立領機車皮衣外套230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 112 肩寬 47 袖長 61 衣長 53 
+L 胸圍114 肩寬 49 袖長63 衣長 55
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim2299】實拍韓國秋冬法式雜色粗花呢小香風外套230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 94 肩寬 37 袖長 56 衣長 50 
+L 胸圍96 肩寬 39 袖長58 衣長52 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cimFF2394】實拍韓國早秋設計感V領軟糯針織開衫230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+胸圍 102 肩寬 51 袖長 54 衣長 51 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim55001】實拍韓國經典款復古氣質長款風衣230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 130 肩連袖 70 衣長 107 
+L胸圍 134 肩連袖72 衣長 109
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim7109】實拍韓國簡約復古高腰PU皮短裙230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M “腰圍 62-72 臀圍 120 裙長 40
+L 腰圍 64~74 臀圍 124 裙長42
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cimLDA01】實拍韓國迷你鎖釦鏈條迷你小方包</t>
+  </si>
+  <si>
+    <t>依實拍照</t>
+  </si>
+  <si>
+    <t>【cimSZ2337】實拍韓國秋冬圓領超短款蝙蝠袖針織罩衫230906</t>
+  </si>
+  <si>
+    <t>肩連袖75 衣長28 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cimYL1126】實拍韓國簡約設計感V領下襬開叉針織衫230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+胸圍 68 肩寬 37 袖長 61 衣長 56 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>cimLD10018】實拍韓國極簡設計柔軟大容量托特三角包</t>
+  </si>
+  <si>
+    <t>【cimXS815】實拍韓國美式復古刺繡標減齡針織開衫毛衣外套女 XS815230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+胸圍 94 肩寬 40 袖長 55 衣長 48 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5556】實拍韓國美式復古休閒連帽短風衣230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 134 肩寬 52 袖長 67 衣長 49 
+L 胸圍136 肩寬54 袖長69 衣長 51 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim0826】實拍韓國秋天百搭修身軟糯堆堆領長袖打底衫230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+胸圍 74-120 “肩寬 34 袖長63 衣長59
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5557】實拍韓國復古高腰氣質顯瘦直筒裙230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 69 臂圍 96 大腿圍 52 
+L 胸圍 71 臂圍100 大腿圍 54
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim7108】實拍韓國小眾私服休閒西裝手感軟皮衣7108230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 114 肩寬 45 袖長 57 衣長 72 
+L 胸圍116 肩寬47 袖長 59 衣長74
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim2300】實拍韓國極簡設計感氣質開叉半拉鍊綁帶襯衫230906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 110 肩寬 51 袖長 56 衣長77
+L 胸圍114 肩寬 53 袖長58 衣長79
 手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -152,24 +278,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,17 +571,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.8125" customWidth="1"/>
+    <col min="2" max="2" width="20.8125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1">
@@ -472,137 +592,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="70.75">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" ht="105.75">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="113.15">
+    <row r="3" spans="1:2" ht="105.75">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="125.6">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="105.75">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="88.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" ht="105.75">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="113.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" ht="105.75">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="113.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" ht="82.5">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="88.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" ht="105.75">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75.900000000000006">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" ht="105.75">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="125.6">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" ht="105.75">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
+    <row r="11" spans="1:2" ht="105.75">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="105.75">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="70.900000000000006">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="94.15">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="105.75">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="51">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="59.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="82.5">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="63.75">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="82.5">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="105.75">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="82.5">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="70.900000000000006">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="105.75">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="105.75">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2"/>
@@ -613,8 +793,8 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\outsider\github\GF_playwright\src\electron\crawler\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAE1CBF-32DD-45B4-8A36-21C817CDE257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85038D8B-ACAE-4DDC-A4B6-AB82E070C3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>流水號</t>
   </si>
@@ -28,217 +28,135 @@
     <t>content</t>
   </si>
   <si>
-    <t>【cim5551】實拍韓國早秋法式温柔襯衫~設計感氣質荷葉領寬鬆襯衫230906</t>
+    <t>【cim2370】實拍極簡鬆弛風高腰顯瘦休閒直筒長褲240301</t>
   </si>
   <si>
     <t xml:space="preserve">
-M 胸圍 94 肩寬 41 袖長 57 衣長 41-48 
-L 胸圍 96 肩寬 43 袖長 59 衣長 43-50 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim5538】實拍韓國美式復古立領麂皮絨短外套230906</t>
+M腰圍64 臀圍110 腿圍66 褲長101
+L腰圍66 臀圍112 腿圍68 褲長102
+全部以cm表示，手工測量可能存在1-3cm誤差</t>
+  </si>
+  <si>
+    <t>【cim7119】實拍純色小白裙~重工鈎花鏤空棉感傘裙240301</t>
   </si>
   <si>
     <t xml:space="preserve">
-M 胸圍 100 肩寬 42 袖長 60 衣長 46 
-L 胸圍104 肩寬44 袖長62 衣長48
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim5539】實拍韓國復古設計感飄帶蝴蝶結短版襯衫230906</t>
+M腰圍60-72 臀圍106 腿圍/ 裙長83
+L腰圍64-76 臀圍110 腿圍/ 裙長85
+全部以cm表示，手工測量可能存在1-3cm誤差</t>
+  </si>
+  <si>
+    <t>【cim2372】實拍早春簡約翻領西裝外套240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M胸圍108 肩寬39 袖長57 衣長71
+L胸圍110 肩寬41 袖長59 衣長 73
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cim2373】實拍細節感蕾絲拼接繫帶長袖襯衫240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M胸圍 92 肩寬44 袖長50 衣長59
+L胸圍 94 肩寬46 袖長52 衣長61 
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cim2368】實拍温柔風圓領蕾絲微透襯衫240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M胸圍96 肩寬36 袖長58 衣長56
+L胸圍 100 肩寬38 袖長60 衣長58 
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cim5579】實拍早春設計師款立領雪紡氣質襯衫240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M胸圍116 肩寬38 袖長65 衣長66
+L胸圍118 肩寬40 袖長67 衣長68 
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cim2366】實拍“呼吸感襯衫”早春經典V領霧面水洗棉襯衫240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胸圍120 肩寬49 袖長 54 衣長71
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cim2365】實拍早春復古法式格子立領燈籠袖襯衫240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M胸圍112 肩寬36 袖長49 衣長52-65
+L胸圍114 肩寬38 袖長51 衣長53-66 
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cimMB563】實拍早春温柔雜色點點麻花針織背心240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胸圍92 肩寬 38 袖長 / 衣長53
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cim2367】實拍春夏蕾絲內搭微透背心裙240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胸圍 98 肩寬33 袖長/ 衣長111
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cim7118】實拍早春設計款鬆緊腰細摺裙240301</t>
   </si>
   <si>
     <t xml:space="preserve">
-M 胸圍 124 肩寬 50 袖長 50 衣長 48-51 
-L 胸圍126 肩寬52 袖長 50 衣長49-52 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim5552】實拍韓國高級感氣質休閒西裝外套230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 104 肩寬 40 袖長 57 衣長 71 
-L 胸圍106 肩寬 42 袖長59 衣長 73
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim7103】實拍韓國高級感法式重工小香風外套230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 110 肩寬 49 袖長 54 衣長 53 
-L 胸圍114 肩寬51 袖長56 衣長55 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cimFF2380】實拍韓國秋冬小香風條紋寬鬆針織衫230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-胸圍 110 肩寬 42 袖長 61 衣長 52 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim2296】實拍韓國復古休閒男友風黑色皮衣外套230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 120 肩寬 51 袖長 53 衣長 62 
-L 胸圍 124 肩寬53 袖長55 衣長64
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim31056】實拍韓國早秋高級感復古條紋襯衫230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 106 肩寬 50 袖長 60 衣長 54~-60 
-L胸圍108 肩寬52 袖長62 衣長 56-62 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim7105】實拍韓國復古小香風立領拼接時髦氣質西裝外套230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 118 肩寬 46 袖長 55 衣長 48 
-L 胸圍120 肩寬 48 袖長57 衣長50
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim2298】實拍韓國美式復古立領機車皮衣外套230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 112 肩寬 47 袖長 61 衣長 53 
-L 胸圍114 肩寬 49 袖長63 衣長 55
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim2299】實拍韓國秋冬法式雜色粗花呢小香風外套230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 94 肩寬 37 袖長 56 衣長 50 
-L 胸圍96 肩寬 39 袖長58 衣長52 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cimFF2394】實拍韓國早秋設計感V領軟糯針織開衫230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-胸圍 102 肩寬 51 袖長 54 衣長 51 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim55001】實拍韓國經典款復古氣質長款風衣230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 130 肩連袖 70 衣長 107 
-L胸圍 134 肩連袖72 衣長 109
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim7109】實拍韓國簡約復古高腰PU皮短裙230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M “腰圍 62-72 臀圍 120 裙長 40
-L 腰圍 64~74 臀圍 124 裙長42
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cimLDA01】實拍韓國迷你鎖釦鏈條迷你小方包</t>
-  </si>
-  <si>
-    <t>依實拍照</t>
-  </si>
-  <si>
-    <t>【cimSZ2337】實拍韓國秋冬圓領超短款蝙蝠袖針織罩衫230906</t>
-  </si>
-  <si>
-    <t>肩連袖75 衣長28 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cimYL1126】實拍韓國簡約設計感V領下襬開叉針織衫230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-胸圍 68 肩寬 37 袖長 61 衣長 56 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>cimLD10018】實拍韓國極簡設計柔軟大容量托特三角包</t>
-  </si>
-  <si>
-    <t>【cimXS815】實拍韓國美式復古刺繡標減齡針織開衫毛衣外套女 XS815230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-胸圍 94 肩寬 40 袖長 55 衣長 48 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim5556】實拍韓國美式復古休閒連帽短風衣230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 134 肩寬 52 袖長 67 衣長 49 
-L 胸圍136 肩寬54 袖長69 衣長 51 
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim0826】實拍韓國秋天百搭修身軟糯堆堆領長袖打底衫230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-胸圍 74-120 “肩寬 34 袖長63 衣長59
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim5557】實拍韓國復古高腰氣質顯瘦直筒裙230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 69 臂圍 96 大腿圍 52 
-L 胸圍 71 臂圍100 大腿圍 54
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim7108】實拍韓國小眾私服休閒西裝手感軟皮衣7108230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 114 肩寬 45 袖長 57 衣長 72 
-L 胸圍116 肩寬47 袖長 59 衣長74
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【cim2300】實拍韓國極簡設計感氣質開叉半拉鍊綁帶襯衫230906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 110 肩寬 51 袖長 56 衣長77
-L 胸圍114 肩寬 53 袖長58 衣長79
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+M腰圍58-68 臀圍110 腿圍/ 裙長78
+L腰圍62-72 臀圍114 腿圍/ 裙長80
+全部以cm表示，手工測量可能存在1-3cm誤差</t>
+  </si>
+  <si>
+    <t>【cimLD1118】實拍春夏復古黑白極簡風褶皺餃子包240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長38 寬12 高26 
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
+  </si>
+  <si>
+    <t>【cimLD99120】實拍韓國博主同款高級軟皮子母托特包240301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長38 寬10 高30 
+全部以cm表示，手工測量可能存在1-3cm誤差
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -252,7 +170,7 @@
       <name val="PingFang TC"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -278,23 +196,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -572,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B25"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -592,209 +528,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="90.4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="90.4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="90.4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="90.4">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="90.4">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="82.5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="90.4">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105.75">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="77.650000000000006">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" ht="90.4">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105.75">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="77.650000000000006">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105.75">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" ht="77.650000000000006">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105.75">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="90.4">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="70.900000000000006">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="63.75">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="94.15">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="63.75">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105.75">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="51">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="59.25">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="82.5">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="63.75">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="82.5">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="105.75">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="82.5">
-      <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="70.900000000000006">
-      <c r="A23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="105.75">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="105.75">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\outsider\github\GF_playwright\src\electron\crawler\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85038D8B-ACAE-4DDC-A4B6-AB82E070C3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B36BE-D31B-48ED-8730-F4312E516D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>流水號</t>
   </si>
@@ -28,116 +28,106 @@
     <t>content</t>
   </si>
   <si>
-    <t>【cim2370】實拍極簡鬆弛風高腰顯瘦休閒直筒長褲240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M腰圍64 臀圍110 腿圍66 褲長101
-L腰圍66 臀圍112 腿圍68 褲長102
-全部以cm表示，手工測量可能存在1-3cm誤差</t>
-  </si>
-  <si>
-    <t>【cim7119】實拍純色小白裙~重工鈎花鏤空棉感傘裙240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M腰圍60-72 臀圍106 腿圍/ 裙長83
-L腰圍64-76 臀圍110 腿圍/ 裙長85
-全部以cm表示，手工測量可能存在1-3cm誤差</t>
-  </si>
-  <si>
-    <t>【cim2372】實拍早春簡約翻領西裝外套240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M胸圍108 肩寬39 袖長57 衣長71
-L胸圍110 肩寬41 袖長59 衣長 73
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cim2373】實拍細節感蕾絲拼接繫帶長袖襯衫240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M胸圍 92 肩寬44 袖長50 衣長59
-L胸圍 94 肩寬46 袖長52 衣長61 
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cim2368】實拍温柔風圓領蕾絲微透襯衫240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M胸圍96 肩寬36 袖長58 衣長56
-L胸圍 100 肩寬38 袖長60 衣長58 
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cim5579】實拍早春設計師款立領雪紡氣質襯衫240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M胸圍116 肩寬38 袖長65 衣長66
-L胸圍118 肩寬40 袖長67 衣長68 
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cim2366】實拍“呼吸感襯衫”早春經典V領霧面水洗棉襯衫240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胸圍120 肩寬49 袖長 54 衣長71
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cim2365】實拍早春復古法式格子立領燈籠袖襯衫240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M胸圍112 肩寬36 袖長49 衣長52-65
-L胸圍114 肩寬38 袖長51 衣長53-66 
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cimMB563】實拍早春温柔雜色點點麻花針織背心240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胸圍92 肩寬 38 袖長 / 衣長53
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cim2367】實拍春夏蕾絲內搭微透背心裙240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胸圍 98 肩寬33 袖長/ 衣長111
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cim7118】實拍早春設計款鬆緊腰細摺裙240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M腰圍58-68 臀圍110 腿圍/ 裙長78
-L腰圍62-72 臀圍114 腿圍/ 裙長80
-全部以cm表示，手工測量可能存在1-3cm誤差</t>
-  </si>
-  <si>
-    <t>【cimLD1118】實拍春夏復古黑白極簡風褶皺餃子包240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">長38 寬12 高26 
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
-  </si>
-  <si>
-    <t>【cimLD99120】實拍韓國博主同款高級軟皮子母托特包240301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">長38 寬10 高30 
-全部以cm表示，手工測量可能存在1-3cm誤差
-</t>
+    <t>【cimYL065】實拍氣質小姊姊的圓領麻花針織衫240313</t>
+  </si>
+  <si>
+    <t>胸圍86 肩寬39 袖長21 衣長54
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL083】實拍早春温柔顯白簡約針織吊帶背心240313</t>
+  </si>
+  <si>
+    <t>胸圍68 肩寬 27 袖長/ 衣長42
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL093】實拍早春温柔百搭短袖針織衫240313</t>
+  </si>
+  <si>
+    <t>胸圍80 肩寬31 袖長22 衣長49
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL217】實拍早春簡約休閒連帽長袖針織衫240313</t>
+  </si>
+  <si>
+    <t>胸圍92 肩寬39 袖長58 衣長56
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2380】實拍早春法式優雅氣質蝴蝶結仙氣温柔長袖襯衫240313</t>
+  </si>
+  <si>
+    <t>M 胸圍92 肩寬36 袖長61 衣長57
+L 胸圍94 肩寬38 袖長63 衣長59
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2381】實拍春日鬆弛感中性復古條紋襯衫240313</t>
+  </si>
+  <si>
+    <t>M 胸圍94 肩寬44 袖長54 衣長68
+L 胸圍96 肩寬46 袖長56 衣長70
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2383】實拍小眾日系款~復古純色慵懶上衣240313</t>
+  </si>
+  <si>
+    <t>M 胸圍100 肩寬75 袖長/ 衣長49
+L 胸圍102 肩寬77 袖長/ 衣長51
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL907】實拍復古方領吊帶顯瘦大擺針織裙240313</t>
+  </si>
+  <si>
+    <t>腰圍68-80 臀圍/ 裙長105
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2385】實拍混搭微透刺繡鈎花泡泡袖連衣裙240313</t>
+  </si>
+  <si>
+    <t>M 胸圍/ 腰圍85/78 肩寬28 袖長20 裙長106
+L 胸圍/ 腰圍84/80 肩寬30 袖長21 裙長108
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL215】實拍法式復古風假兩件針織吊帶裙240313</t>
+  </si>
+  <si>
+    <t>胸圍64. 裙長115
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL1165】實拍早春U領短袖軟糯薄款針織衫240313</t>
+  </si>
+  <si>
+    <t>胸圍66 肩寬34 袖長28 衣長60
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL052】實拍質感温柔金扣短款針織衫240313</t>
+  </si>
+  <si>
+    <t>胸圍90 肩寬39 袖長 60 衣長51
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL018】實拍質感圓領針織背心240313</t>
+  </si>
+  <si>
+    <t>胸圍68 肩寬30 袖長 / 衣長51
+誤差1-3公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cimYL020】實拍温柔氣質細坑條針織衫240313</t>
+  </si>
+  <si>
+    <t>胸圍 84 肩寬37 袖長26 衣長58
+誤差1-3公分為正常，以實物為準。</t>
   </si>
 </sst>
 </file>
@@ -511,7 +501,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+      <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -528,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="90.4">
+    <row r="2" spans="1:2" ht="77.650000000000006">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -536,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="90.4">
+    <row r="3" spans="1:2" ht="77.650000000000006">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -544,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90.4">
+    <row r="4" spans="1:2" ht="77.650000000000006">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -552,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90.4">
+    <row r="5" spans="1:2" ht="77.650000000000006">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -576,7 +566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="77.650000000000006">
+    <row r="8" spans="1:2" ht="90.4">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -584,7 +574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="90.4">
+    <row r="9" spans="1:2" ht="64.900000000000006">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -592,15 +582,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="77.650000000000006">
+    <row r="10" spans="1:2" ht="63.75">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="77.650000000000006">
+    <row r="11" spans="1:2" ht="64.900000000000006">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -608,7 +598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="90.4">
+    <row r="12" spans="1:2" ht="77.650000000000006">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -616,7 +606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="63.75">
+    <row r="13" spans="1:2" ht="77.650000000000006">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -624,7 +614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="63.75">
+    <row r="14" spans="1:2" ht="77.650000000000006">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -632,9 +622,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+    <row r="15" spans="1:2" ht="77.650000000000006">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9"/>

--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\outsider\github\GF_playwright\src\electron\crawler\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B36BE-D31B-48ED-8730-F4312E516D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29038997-0AA8-44DF-AFB5-83E37B8B4B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11393" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>流水號</t>
   </si>
@@ -28,113 +28,146 @@
     <t>content</t>
   </si>
   <si>
-    <t>【cimYL065】實拍氣質小姊姊的圓領麻花針織衫240313</t>
-  </si>
-  <si>
-    <t>胸圍86 肩寬39 袖長21 衣長54
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL083】實拍早春温柔顯白簡約針織吊帶背心240313</t>
-  </si>
-  <si>
-    <t>胸圍68 肩寬 27 袖長/ 衣長42
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL093】實拍早春温柔百搭短袖針織衫240313</t>
-  </si>
-  <si>
-    <t>胸圍80 肩寬31 袖長22 衣長49
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL217】實拍早春簡約休閒連帽長袖針織衫240313</t>
-  </si>
-  <si>
-    <t>胸圍92 肩寬39 袖長58 衣長56
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cim2380】實拍早春法式優雅氣質蝴蝶結仙氣温柔長袖襯衫240313</t>
-  </si>
-  <si>
-    <t>M 胸圍92 肩寬36 袖長61 衣長57
-L 胸圍94 肩寬38 袖長63 衣長59
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cim2381】實拍春日鬆弛感中性復古條紋襯衫240313</t>
-  </si>
-  <si>
-    <t>M 胸圍94 肩寬44 袖長54 衣長68
-L 胸圍96 肩寬46 袖長56 衣長70
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cim2383】實拍小眾日系款~復古純色慵懶上衣240313</t>
-  </si>
-  <si>
-    <t>M 胸圍100 肩寬75 袖長/ 衣長49
-L 胸圍102 肩寬77 袖長/ 衣長51
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL907】實拍復古方領吊帶顯瘦大擺針織裙240313</t>
-  </si>
-  <si>
-    <t>腰圍68-80 臀圍/ 裙長105
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cim2385】實拍混搭微透刺繡鈎花泡泡袖連衣裙240313</t>
-  </si>
-  <si>
-    <t>M 胸圍/ 腰圍85/78 肩寬28 袖長20 裙長106
-L 胸圍/ 腰圍84/80 肩寬30 袖長21 裙長108
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL215】實拍法式復古風假兩件針織吊帶裙240313</t>
-  </si>
-  <si>
-    <t>胸圍64. 裙長115
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL1165】實拍早春U領短袖軟糯薄款針織衫240313</t>
-  </si>
-  <si>
-    <t>胸圍66 肩寬34 袖長28 衣長60
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL052】實拍質感温柔金扣短款針織衫240313</t>
-  </si>
-  <si>
-    <t>胸圍90 肩寬39 袖長 60 衣長51
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL018】實拍質感圓領針織背心240313</t>
-  </si>
-  <si>
-    <t>胸圍68 肩寬30 袖長 / 衣長51
-誤差1-3公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【cimYL020】實拍温柔氣質細坑條針織衫240313</t>
-  </si>
-  <si>
-    <t>胸圍 84 肩寬37 袖長26 衣長58
-誤差1-3公分為正常，以實物為準。</t>
+    <t>【Y96031】實拍S~XL韓版高腰顯瘦白色直筒九分牛仔褲240925</t>
+  </si>
+  <si>
+    <t>S：腰圍 64，臀圍 94，大腿圍 60，褲腳圍 58，褲長 95
+M：腰圍 68，臀圍 98，大腿圍 62，褲腳圍 60，褲長 96
+L：腰圍 72，臀圍 102，大腿圍 64，褲腳圍 62，褲長 97
+XL：腰圍 76，臀圍 106，大腿圍 66，褲腳圍 64，褲長 98
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YG9631】實拍秋季休閒慵懶褶皺假兩件針織衫(6%羊毛)240925</t>
+  </si>
+  <si>
+    <t>肩寬 38，袖長 63，胸圍 76，下擺圍 74，衣長 58
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y9789】實拍法式復古高腰百褶A字裙240925</t>
+  </si>
+  <si>
+    <t>M：腰圍 60，臀圍 110，下擺圍 226，袖長 92
+L：腰圍 64，臀圍 114，下擺圍 230，袖長 93
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y82136】實拍韓國寬鬆不規則側開叉斜扣純棉襯衫240925</t>
+  </si>
+  <si>
+    <t>M：肩寬 48，袖長 59.5，胸圍 122，下擺圍 130，衣長 71/75
+L：肩寬 49，袖長 60.5，胸圍 126，下擺圍 134，衣長 72/76
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【Y9790】實拍韓國設計款休閒質感衞褲240925</t>
+  </si>
+  <si>
+    <t>M：腰圍 66，臀圍 124，大腿圍 76，褲腳圍 58，褲長 102
+L：腰圍 70，臀圍 128，大腿圍 78，褲腳圍 60，褲長 103
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【YA12】實拍軟軟舒服的針織外套+針織背心 套裝240925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F（背心）：胸圍 72，下擺圍 78，衣長 48
+F（外套）：肩寬 60，袖長 46，胸圍 110，下擺圍 110，衣長 76
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。
+</t>
+  </si>
+  <si>
+    <t>【YP661】實拍慵懶垂感高腰針織闊腿褲240925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰圍 61，臀圍 120，大腿圍 88，褲腳圍 134，褲長 94
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。
+</t>
+  </si>
+  <si>
+    <t>【YG9662】實拍休閒撞色假兩件T恤針織衫240925</t>
+  </si>
+  <si>
+    <t>肩寬 36，袖長 61，胸圍 76，下擺圍 76，衣長 55
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YG5162】實拍氣質百搭方領坑條長袖針織衫240925</t>
+  </si>
+  <si>
+    <t>肩寬 35，袖長 58，胸圍 66，下擺圍 66，衣長 55
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YA8】實拍韓系簡約V領寬鬆針織外套240925</t>
+  </si>
+  <si>
+    <t>袖長 67，胸圍 100，下擺圍 86，衣長 52
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y68106】實拍S~XL高腰顯瘦直筒牛仔褲240925</t>
+  </si>
+  <si>
+    <t>S：腰圍 66，臀圍 96，大腿圍 60，褲腳圍 50，褲長 103
+M：腰圍 70，臀圍 100，大腿圍 62，褲腳圍 52，褲長 104
+L：腰圍 74，臀圍 104，大腿圍 64，褲腳圍 54，褲長 105
+XL：腰圍 78，臀圍 108，大腿圍 66，褲腳圍 56，褲長 106
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YH9607】實拍S~XL復古高腰直筒牛仔褲240925</t>
+  </si>
+  <si>
+    <t>S：腰圍 64，臀圍 92，大腿圍 60，褲腳圍 48，褲長 91
+M：腰圍 68，臀圍 96，大腿圍 62，褲腳圍 50，褲長 92
+L：腰圍 72，臀圍 100，大腿圍 64，褲腳圍 52，褲長 93
+XL：腰圍 76，臀圍 104，大腿圍 66，褲腳圍 54，褲長 94
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP332】實拍韓版半高領軟糯針織T恤洋裝240925</t>
+  </si>
+  <si>
+    <t>肩寬 39，袖長 22，胸圍 94，下擺圍 104，衣長 124
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YG9833】實拍半拉鍊假兩件針織T恤(6%羊毛)240925</t>
+  </si>
+  <si>
+    <t>肩寬 38，袖長 63，胸圍 70，下擺圍 68，衣長 50/55
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YG736】實拍簡約設計感修身長袖針織T恤(6%羊毛)240925</t>
+  </si>
+  <si>
+    <t>肩寬 33，袖長 62，胸圍 72，下擺圍 74，衣長 56
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YA13】實拍氣質針織外套＋背心兩件套240925</t>
+  </si>
+  <si>
+    <t>F（背心）：胸圍 68，下擺圍 66，衣長 49
+F（外套）：肩寬 57，袖長 54，胸圍 116，下擺圍 114，衣長 58
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+  </si>
+  <si>
+    <t>【YXXT325】實拍簡約粗針針織背心(羊毛25)240925</t>
+  </si>
+  <si>
+    <t>肩寬 47，胸圍 100，下擺圍 90，衣長 54
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,12 +192,6 @@
       <color theme="1"/>
       <name val="PingFang TC"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,15 +239,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -501,7 +522,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+      <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -518,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="77.650000000000006">
+    <row r="2" spans="1:2" ht="205.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="77.650000000000006">
+    <row r="4" spans="1:2" ht="128.65">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="77.650000000000006">
+    <row r="5" spans="1:2" ht="115.9">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -550,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="90.4">
+    <row r="6" spans="1:2" ht="115.9">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -558,15 +579,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90.4">
+    <row r="7" spans="1:2" ht="63.75">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90.4">
+    <row r="8" spans="1:2" ht="103.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -582,15 +603,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="63.75">
+    <row r="10" spans="1:2" ht="64.900000000000006">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="64.900000000000006">
+    <row r="11" spans="1:2" ht="77.650000000000006">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -598,7 +619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="77.650000000000006">
+    <row r="12" spans="1:2" ht="192.4">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -606,7 +627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="77.650000000000006">
+    <row r="13" spans="1:2" ht="192.4">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -630,17 +651,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+    <row r="16" spans="1:2" ht="64.900000000000006">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="51">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="64.900000000000006">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7"/>

--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\outsider\github\GF_playwright\src\electron\crawler\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29038997-0AA8-44DF-AFB5-83E37B8B4B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF658473-A689-4213-A4FD-890F4726A380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11393" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>流水號</t>
   </si>
@@ -28,146 +28,236 @@
     <t>content</t>
   </si>
   <si>
-    <t>【Y96031】實拍S~XL韓版高腰顯瘦白色直筒九分牛仔褲240925</t>
-  </si>
-  <si>
-    <t>S：腰圍 64，臀圍 94，大腿圍 60，褲腳圍 58，褲長 95
-M：腰圍 68，臀圍 98，大腿圍 62，褲腳圍 60，褲長 96
-L：腰圍 72，臀圍 102，大腿圍 64，褲腳圍 62，褲長 97
-XL：腰圍 76，臀圍 106，大腿圍 66，褲腳圍 64，褲長 98
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YG9631】實拍秋季休閒慵懶褶皺假兩件針織衫(6%羊毛)240925</t>
-  </si>
-  <si>
-    <t>肩寬 38，袖長 63，胸圍 76，下擺圍 74，衣長 58
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y9789】實拍法式復古高腰百褶A字裙240925</t>
-  </si>
-  <si>
-    <t>M：腰圍 60，臀圍 110，下擺圍 226，袖長 92
-L：腰圍 64，臀圍 114，下擺圍 230，袖長 93
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y82136】實拍韓國寬鬆不規則側開叉斜扣純棉襯衫240925</t>
-  </si>
-  <si>
-    <t>M：肩寬 48，袖長 59.5，胸圍 122，下擺圍 130，衣長 71/75
-L：肩寬 49，袖長 60.5，胸圍 126，下擺圍 134，衣長 72/76
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【Y9790】實拍韓國設計款休閒質感衞褲240925</t>
-  </si>
-  <si>
-    <t>M：腰圍 66，臀圍 124，大腿圍 76，褲腳圍 58，褲長 102
-L：腰圍 70，臀圍 128，大腿圍 78，褲腳圍 60，褲長 103
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【YA12】實拍軟軟舒服的針織外套+針織背心 套裝240925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F（背心）：胸圍 72，下擺圍 78，衣長 48
-F（外套）：肩寬 60，袖長 46，胸圍 110，下擺圍 110，衣長 76
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。
+    <t>【cim2580】實拍復古老錢風高腰顯瘦條紋休閒長褲250515</t>
+  </si>
+  <si>
+    <t>M：腰圍 66、臀圍 108、大腿圍 74、褲長 93
+L：腰圍 68、臀圍 110、大腿圍 76、褲長 95
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP290】實拍夏季氣質款鎖空飛飛袖針織衫250515</t>
+  </si>
+  <si>
+    <t>F：胸圍 96、衣長 58、肩寬 51、下擺圍 90
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP298】實拍夏季輕透竹節麻防曬針織襯衫250515</t>
+  </si>
+  <si>
+    <t>F：胸圍 112、衣長 69、肩寬 49、袖長 57、下擺圍 106
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP178】實拍法式氣質蕾絲冰絲針織衫250515</t>
+  </si>
+  <si>
+    <t>F：胸圍 64、衣長 58、肩寬 33、袖長 16、下擺圍 74
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y25253】實拍夏天波西米亞涼爽渡假雪紡寬褲250515</t>
+  </si>
+  <si>
+    <t>M：腰圍 64、臀圍 110、大腿圍 80、褲腳圍 86、褲長 102
+L：腰圍 68、臀圍 114、大腿圍 82、褲腳圍 88、褲長 103
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP286】實拍韓國簡約設計款天絲亞麻針織背心250515</t>
+  </si>
+  <si>
+    <t>F：胸圍 86、衣長 51、肩寬 35、下擺圍 80
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP302】實拍法式復古收腰綁帶針織背心250515</t>
+  </si>
+  <si>
+    <t>F：胸圍 86、衣長 54、肩寬 40、下擺圍 60
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP309】實拍冰絲螺紋吊帶針織背心250515</t>
+  </si>
+  <si>
+    <t>F：胸圍 64、衣長 45/56、下擺圍 56
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP285】實拍夏天簡約薄款針織背心250515</t>
+  </si>
+  <si>
+    <t>F：胸圍 94、衣長 55、肩寬 41、下擺圍 82
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YG7361】實拍夏天爽涼棉麻懶懶直條鬆腿褲（鬆緊腰）250515</t>
+  </si>
+  <si>
+    <t>M：臀圍 114、腰圍 60、褲長 97、大腿圍 72、褲腳圍 76
+L：臀圍 118、腰圍 64、褲長 98、大腿圍 74、褲腳圍 78
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y98153】實拍S~XL經典色復古高腰A字牛仔短褲＋皮帶（內有安全褲）250515</t>
+  </si>
+  <si>
+    <t>S：腰圍 64、臀圍 88、下擺圍 100、褲長 38
+M：腰圍 68、臀圍 92、下擺圍 104、褲長 39
+L：腰圍 72、臀圍 96、下擺圍 108、褲長 40
+XL：腰圍 76、臀圍 100、下擺圍 112、褲長 41
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y25280】實拍夏天百搭鬆緊腰腰瘦短褲（含腰帶）250515</t>
+  </si>
+  <si>
+    <t>M：腰圍 62、臀圍 114、褲長 41、大腿圍 72、褲腳圍 72
+L：腰圍 66、臀圍 118、褲長 42、大腿圍 74、褲腳圍 74
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y98112】實拍夏天S~XL經典款顯瘦高腰牛仔短褲＋皮帶250515</t>
+  </si>
+  <si>
+    <t>S：腰圍 64、臀圍 96、褲長 32、大腿圍 62、褲腳圍 60
+M：腰圍 68、臀圍 100、褲長 33、大腿圍 64、褲腳圍 62
+L：腰圍 72、臀圍 104、褲長 34、大腿圍 66、褲腳圍 64
+XL：腰圍 76、臀圍 108、褲長 35、大腿圍 68、褲腳圍 66
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y5989】純棉夏季韓系綁帶鑽空娃娃衫250515</t>
+  </si>
+  <si>
+    <t>M：胸圍 116、衣長 63、肩寬 67、袖長 14、下擺圍 142
+L：胸圍 120、衣長 64、肩寬 68、袖長 15、下擺圍 146
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y82373】高單夏季天然亞麻V領綁帶襯衫250515</t>
+  </si>
+  <si>
+    <t>M：胸圍 96、衣長 58、肩寬 50、下擺圍 106
+L：胸圍 100、衣長 59、肩寬 51、下擺圍 110
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y82383】法式絕美不規則綁帶背心T恤250515</t>
+  </si>
+  <si>
+    <t>M：胸圍 72、衣長 68、肩寬 28、下擺圍 64
+L：胸圍 76、衣長 69、肩寬 29、下擺圍 68
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y82385】實拍夏天高單氣質天絲亞麻上衣+氣質直筒裙（有內裡鬆緊腰）250515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【Y2999】實拍高級感天絲V領襯衫+寬鬆闊腿褲250515
 </t>
   </si>
   <si>
-    <t>【YP661】實拍慵懶垂感高腰針織闊腿褲240925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰圍 61，臀圍 120，大腿圍 88，褲腳圍 134，褲長 94
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。
-</t>
-  </si>
-  <si>
-    <t>【YG9662】實拍休閒撞色假兩件T恤針織衫240925</t>
-  </si>
-  <si>
-    <t>肩寬 36，袖長 61，胸圍 76，下擺圍 76，衣長 55
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YG5162】實拍氣質百搭方領坑條長袖針織衫240925</t>
-  </si>
-  <si>
-    <t>肩寬 35，袖長 58，胸圍 66，下擺圍 66，衣長 55
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YA8】實拍韓系簡約V領寬鬆針織外套240925</t>
-  </si>
-  <si>
-    <t>袖長 67，胸圍 100，下擺圍 86，衣長 52
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y68106】實拍S~XL高腰顯瘦直筒牛仔褲240925</t>
-  </si>
-  <si>
-    <t>S：腰圍 66，臀圍 96，大腿圍 60，褲腳圍 50，褲長 103
-M：腰圍 70，臀圍 100，大腿圍 62，褲腳圍 52，褲長 104
-L：腰圍 74，臀圍 104，大腿圍 64，褲腳圍 54，褲長 105
-XL：腰圍 78，臀圍 108，大腿圍 66，褲腳圍 56，褲長 106
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YH9607】實拍S~XL復古高腰直筒牛仔褲240925</t>
-  </si>
-  <si>
-    <t>S：腰圍 64，臀圍 92，大腿圍 60，褲腳圍 48，褲長 91
-M：腰圍 68，臀圍 96，大腿圍 62，褲腳圍 50，褲長 92
-L：腰圍 72，臀圍 100，大腿圍 64，褲腳圍 52，褲長 93
-XL：腰圍 76，臀圍 104，大腿圍 66，褲腳圍 54，褲長 94
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP332】實拍韓版半高領軟糯針織T恤洋裝240925</t>
-  </si>
-  <si>
-    <t>肩寬 39，袖長 22，胸圍 94，下擺圍 104，衣長 124
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YG9833】實拍半拉鍊假兩件針織T恤(6%羊毛)240925</t>
-  </si>
-  <si>
-    <t>肩寬 38，袖長 63，胸圍 70，下擺圍 68，衣長 50/55
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YG736】實拍簡約設計感修身長袖針織T恤(6%羊毛)240925</t>
-  </si>
-  <si>
-    <t>肩寬 33，袖長 62，胸圍 72，下擺圍 74，衣長 56
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YA13】實拍氣質針織外套＋背心兩件套240925</t>
-  </si>
-  <si>
-    <t>F（背心）：胸圍 68，下擺圍 66，衣長 49
-F（外套）：肩寬 57，袖長 54，胸圍 116，下擺圍 114，衣長 58
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
-  </si>
-  <si>
-    <t>【YXXT325】實拍簡約粗針針織背心(羊毛25)240925</t>
-  </si>
-  <si>
-    <t>肩寬 47，胸圍 100，下擺圍 90，衣長 54
-手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準。</t>
+    <t>【Y5992】法式氣質側邊扣背心襯衫+鬆緊腰直筒裙（分開下單）250515</t>
+  </si>
+  <si>
+    <t>【Y82313】法式天絲亞麻綁帶舒適設計款長洋裝（亞麻42%)250515</t>
+  </si>
+  <si>
+    <t>M：胸圍92、衣長125、腰圍94、袖長／、肩寬33
+L：胸圍96、衣長126、腰圍98、袖長／、肩寬34
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y5989】純棉夏季韓系綁帶鏤空娃娃衫250515</t>
+  </si>
+  <si>
+    <t>M：胸圍116、衣長63、肩寬67、袖長14、下擺圍142
+L：胸圍120、衣長64、肩寬68、袖長15、下擺圍146
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>M：胸圍96、衣長58、肩寬50、下擺圍106
+L：胸圍100、衣長59、肩寬51、下擺圍110
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>M：胸圍72、衣長68、肩寬28、下擺圍64
+L：胸圍76、衣長69、肩寬29、下擺圍68
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【YP280】實拍夏天簡約天然亞麻針織衫（亞麻15%）250515</t>
+  </si>
+  <si>
+    <t>F：胸圍84、衣長50、肩寬53、下擺圍66、袖長／
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y82331】實拍夏天韓國亞麻混棉短袖襯衫250515</t>
+  </si>
+  <si>
+    <t>M：胸圍110、衣長61、肩寬55、下擺圍106、袖長／
+L：胸圍114、衣長62、肩寬56、下擺圍110、袖長／
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y3190】實拍法式天然亞麻短袖襯衫250515</t>
+  </si>
+  <si>
+    <t>M：胸圍102、衣長62、肩寬49、下擺圍112、袖長11
+L：胸圍106、衣長63、肩寬50、下擺圍116、袖長12
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y82391】夏季高單扭扣天然亞麻上衣（亞麻20%）250515</t>
+  </si>
+  <si>
+    <t>M：胸圍94、衣長74、肩寬47、腰圍72、袖長／
+L：胸圍98、衣長75、肩寬48、腰圍76、袖長／
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y82295】舒適簡約U領短袖T恤250515</t>
+  </si>
+  <si>
+    <t>M：胸圍70、衣長52、肩寬38、下擺圍70、袖長11
+L：胸圍74、衣長53、肩寬39、下擺圍74、袖長12
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y82500】法式天然飄帶綁結2穿氣質仙女長洋裝250515</t>
+  </si>
+  <si>
+    <t>M：胸圍90、衣長132、腰圍106、袖長／、肩寬／
+L：胸圍94、衣長133、腰圍110、袖長／、肩寬／
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y5991】夏天高單簡約款棉麻收腰短袖襯衫洋裝（30%苎麻）250515</t>
+  </si>
+  <si>
+    <t>M：胸圍120、衣長121、腰圍116、袖長／、肩寬60
+L：胸圍124、衣長122、腰圍120、袖長／、肩寬61
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【Y82315】高單夏天亞麻混棉落肩襯衫250515</t>
+  </si>
+  <si>
+    <t>M：胸圍114、衣長64、肩寬55 下擺圍104
+L：胸圍118、衣長65、肩寬56 下擺圍108
+誤差 1–3 公分為正常，以實物為準。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,23 +272,63 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="PingFang TC"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434649"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PingFang TC"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF2F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,31 +343,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,19 +658,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+      <selection activeCell="A2" sqref="A2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.8125" customWidth="1"/>
+    <col min="1" max="1" width="52.625" customWidth="1"/>
     <col min="2" max="2" width="20.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,219 +678,302 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="205.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="141.75">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="77.650000000000006">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="94.5">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="128.65">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="94.5">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="115.9">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="94.5">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="115.9">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="173.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="63.75">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="94.5">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="103.15">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="94.5">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="64.900000000000006">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="78.75">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="64.900000000000006">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="94.5">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="77.650000000000006">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="141.75">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="192.4">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="236.25">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="192.4">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="141.75">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="77.650000000000006">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="236.25">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="77.650000000000006">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="141.75">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="64.900000000000006">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="141.75">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="51">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="141.75">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="64.900000000000006">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="30.75">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="45.75">
+      <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="30.75">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="135">
+      <c r="A21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="141.75">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="110.25">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="110.25">
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="94.5">
+      <c r="A25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="141.75">
+      <c r="A26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="141.75">
+      <c r="A27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="141.75">
+      <c r="A28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="141.75">
+      <c r="A29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="141.75">
+      <c r="A30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="141.75">
+      <c r="A31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="110.25">
+      <c r="A32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6"/>
       <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:O1 C45:O46 D2:O44" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:O1 F45:O46 F2:O44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\outsider\github\GF_playwright\src\electron\crawler\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF658473-A689-4213-A4FD-890F4726A380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0A9AB-9FC4-4E2E-A600-58ACA81C612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>流水號</t>
   </si>
@@ -129,14 +129,6 @@
 誤差 1–3 公分為正常，以實物為準。</t>
   </si>
   <si>
-    <t>【Y5989】純棉夏季韓系綁帶鑽空娃娃衫250515</t>
-  </si>
-  <si>
-    <t>M：胸圍 116、衣長 63、肩寬 67、袖長 14、下擺圍 142
-L：胸圍 120、衣長 64、肩寬 68、袖長 15、下擺圍 146
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
     <t>【Y82373】高單夏季天然亞麻V領綁帶襯衫250515</t>
   </si>
   <si>
@@ -180,16 +172,6 @@
 誤差 1–3 公分為正常，以實物為準。</t>
   </si>
   <si>
-    <t>M：胸圍96、衣長58、肩寬50、下擺圍106
-L：胸圍100、衣長59、肩寬51、下擺圍110
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>M：胸圍72、衣長68、肩寬28、下擺圍64
-L：胸圍76、衣長69、肩寬29、下擺圍68
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
     <t>【YP280】實拍夏天簡約天然亞麻針織衫（亞麻15%）250515</t>
   </si>
   <si>
@@ -250,6 +232,29 @@
   <si>
     <t>M：胸圍114、衣長64、肩寬55 下擺圍104
 L：胸圍118、衣長65、肩寬56 下擺圍108
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>上衣：
+M：胸圍94、衣長72、肩寬63、下擺圍94
+L：胸圍98、衣長73、肩寬64下擺圍98
+褲子：
+M：腰圍 66、大腿圍 80、褲長 105
+L：腰圍70、大腿圍 82、褲長 106
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>M(上衣)：胸圍 90、衣長 58、肩寬 37
+L(上衣)：胸圍 94、衣長 59、肩寬 38
+M(半身裙)：腰圍 60、裙長 87
+L(半身裙)：腰圍 64、裙長 88
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>M(上衣)：胸圍 84、衣長 70、下擺圍 110
+L(上衣)：胸圍 88、衣長 71、下擺圍 114
+M(半身裙)：胸圍 84、裙長 110
+L(半身裙)：胸圍 88、裙長 114
 誤差 1–3 公分為正常，以實物為準。</t>
   </si>
 </sst>
@@ -661,7 +666,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B32"/>
+      <selection activeCell="A2" sqref="A2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -678,277 +683,271 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="141.75">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" ht="195.75">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="141.75">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="94.5">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="94.5">
+    <row r="4" spans="1:3" ht="173.25">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="94.5">
+    <row r="5" spans="1:3" ht="141.75">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="173.25">
+    <row r="6" spans="1:3" ht="141.75">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="94.5">
+    <row r="7" spans="1:3" ht="141.75">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="94.5">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
+    <row r="8" spans="1:3" ht="141.75">
+      <c r="A8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="78.75">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
+    <row r="9" spans="1:3" ht="165.75">
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="94.5">
+    <row r="10" spans="1:3" ht="141.75">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="141.75">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
+    <row r="11" spans="1:3" ht="135">
+      <c r="A11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="236.25">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
+    <row r="12" spans="1:3" ht="110.25">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="141.75">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="236.25">
+    <row r="14" spans="1:3" ht="141.75">
       <c r="A14" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="141.75">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="141.75">
-      <c r="A16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
+    <row r="16" spans="1:3" ht="195.75">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="141.75">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="30.75">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:3" ht="141.75">
+      <c r="A18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="45.75">
-      <c r="A19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:3" ht="236.25">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="30.75">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:3" ht="236.25">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="135">
-      <c r="A21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>38</v>
+    <row r="21" spans="1:3" ht="141.75">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="141.75">
+    <row r="22" spans="1:3" ht="94.5">
       <c r="A22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="94.5">
+      <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="110.25">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="110.25">
+    <row r="24" spans="1:3" ht="94.5">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="94.5">
       <c r="A25" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="141.75">
+    <row r="26" spans="1:3" ht="94.5">
       <c r="A26" s="7" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="141.75">
+    <row r="27" spans="1:3" ht="94.5">
       <c r="A27" s="7" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="141.75">
+    <row r="28" spans="1:3" ht="94.5">
       <c r="A28" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="141.75">
+    <row r="29" spans="1:3" ht="78.75">
       <c r="A29" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" ht="141.75">
-      <c r="A30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>54</v>
-      </c>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="141.75">
-      <c r="A31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>56</v>
-      </c>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="110.25">
-      <c r="A32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>58</v>
-      </c>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">

--- a/src/electron/crawler/config/小米粒夏日.xlsx
+++ b/src/electron/crawler/config/小米粒夏日.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\outsider\github\GF_playwright\src\electron\crawler\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0A9AB-9FC4-4E2E-A600-58ACA81C612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5746D-F060-49AD-87CF-CB3C141D92AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="2190" windowWidth="16410" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>流水號</t>
   </si>
@@ -28,233 +28,122 @@
     <t>content</t>
   </si>
   <si>
-    <t>【cim2580】實拍復古老錢風高腰顯瘦條紋休閒長褲250515</t>
-  </si>
-  <si>
-    <t>M：腰圍 66、臀圍 108、大腿圍 74、褲長 93
-L：腰圍 68、臀圍 110、大腿圍 76、褲長 95
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP290】實拍夏季氣質款鎖空飛飛袖針織衫250515</t>
-  </si>
-  <si>
-    <t>F：胸圍 96、衣長 58、肩寬 51、下擺圍 90
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP298】實拍夏季輕透竹節麻防曬針織襯衫250515</t>
-  </si>
-  <si>
-    <t>F：胸圍 112、衣長 69、肩寬 49、袖長 57、下擺圍 106
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP178】實拍法式氣質蕾絲冰絲針織衫250515</t>
-  </si>
-  <si>
-    <t>F：胸圍 64、衣長 58、肩寬 33、袖長 16、下擺圍 74
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y25253】實拍夏天波西米亞涼爽渡假雪紡寬褲250515</t>
-  </si>
-  <si>
-    <t>M：腰圍 64、臀圍 110、大腿圍 80、褲腳圍 86、褲長 102
-L：腰圍 68、臀圍 114、大腿圍 82、褲腳圍 88、褲長 103
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP286】實拍韓國簡約設計款天絲亞麻針織背心250515</t>
-  </si>
-  <si>
-    <t>F：胸圍 86、衣長 51、肩寬 35、下擺圍 80
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP302】實拍法式復古收腰綁帶針織背心250515</t>
-  </si>
-  <si>
-    <t>F：胸圍 86、衣長 54、肩寬 40、下擺圍 60
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP309】實拍冰絲螺紋吊帶針織背心250515</t>
-  </si>
-  <si>
-    <t>F：胸圍 64、衣長 45/56、下擺圍 56
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP285】實拍夏天簡約薄款針織背心250515</t>
-  </si>
-  <si>
-    <t>F：胸圍 94、衣長 55、肩寬 41、下擺圍 82
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YG7361】實拍夏天爽涼棉麻懶懶直條鬆腿褲（鬆緊腰）250515</t>
-  </si>
-  <si>
-    <t>M：臀圍 114、腰圍 60、褲長 97、大腿圍 72、褲腳圍 76
-L：臀圍 118、腰圍 64、褲長 98、大腿圍 74、褲腳圍 78
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y98153】實拍S~XL經典色復古高腰A字牛仔短褲＋皮帶（內有安全褲）250515</t>
-  </si>
-  <si>
-    <t>S：腰圍 64、臀圍 88、下擺圍 100、褲長 38
-M：腰圍 68、臀圍 92、下擺圍 104、褲長 39
-L：腰圍 72、臀圍 96、下擺圍 108、褲長 40
-XL：腰圍 76、臀圍 100、下擺圍 112、褲長 41
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y25280】實拍夏天百搭鬆緊腰腰瘦短褲（含腰帶）250515</t>
-  </si>
-  <si>
-    <t>M：腰圍 62、臀圍 114、褲長 41、大腿圍 72、褲腳圍 72
-L：腰圍 66、臀圍 118、褲長 42、大腿圍 74、褲腳圍 74
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y98112】實拍夏天S~XL經典款顯瘦高腰牛仔短褲＋皮帶250515</t>
-  </si>
-  <si>
-    <t>S：腰圍 64、臀圍 96、褲長 32、大腿圍 62、褲腳圍 60
-M：腰圍 68、臀圍 100、褲長 33、大腿圍 64、褲腳圍 62
-L：腰圍 72、臀圍 104、褲長 34、大腿圍 66、褲腳圍 64
-XL：腰圍 76、臀圍 108、褲長 35、大腿圍 68、褲腳圍 66
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y82373】高單夏季天然亞麻V領綁帶襯衫250515</t>
-  </si>
-  <si>
-    <t>M：胸圍 96、衣長 58、肩寬 50、下擺圍 106
-L：胸圍 100、衣長 59、肩寬 51、下擺圍 110
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y82383】法式絕美不規則綁帶背心T恤250515</t>
-  </si>
-  <si>
-    <t>M：胸圍 72、衣長 68、肩寬 28、下擺圍 64
-L：胸圍 76、衣長 69、肩寬 29、下擺圍 68
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y82385】實拍夏天高單氣質天絲亞麻上衣+氣質直筒裙（有內裡鬆緊腰）250515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-【Y2999】實拍高級感天絲V領襯衫+寬鬆闊腿褲250515
-</t>
-  </si>
-  <si>
-    <t>【Y5992】法式氣質側邊扣背心襯衫+鬆緊腰直筒裙（分開下單）250515</t>
-  </si>
-  <si>
-    <t>【Y82313】法式天絲亞麻綁帶舒適設計款長洋裝（亞麻42%)250515</t>
-  </si>
-  <si>
-    <t>M：胸圍92、衣長125、腰圍94、袖長／、肩寬33
-L：胸圍96、衣長126、腰圍98、袖長／、肩寬34
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y5989】純棉夏季韓系綁帶鏤空娃娃衫250515</t>
-  </si>
-  <si>
-    <t>M：胸圍116、衣長63、肩寬67、袖長14、下擺圍142
-L：胸圍120、衣長64、肩寬68、袖長15、下擺圍146
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【YP280】實拍夏天簡約天然亞麻針織衫（亞麻15%）250515</t>
-  </si>
-  <si>
-    <t>F：胸圍84、衣長50、肩寬53、下擺圍66、袖長／
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y82331】實拍夏天韓國亞麻混棉短袖襯衫250515</t>
-  </si>
-  <si>
-    <t>M：胸圍110、衣長61、肩寬55、下擺圍106、袖長／
-L：胸圍114、衣長62、肩寬56、下擺圍110、袖長／
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y3190】實拍法式天然亞麻短袖襯衫250515</t>
-  </si>
-  <si>
-    <t>M：胸圍102、衣長62、肩寬49、下擺圍112、袖長11
-L：胸圍106、衣長63、肩寬50、下擺圍116、袖長12
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y82391】夏季高單扭扣天然亞麻上衣（亞麻20%）250515</t>
-  </si>
-  <si>
-    <t>M：胸圍94、衣長74、肩寬47、腰圍72、袖長／
-L：胸圍98、衣長75、肩寬48、腰圍76、袖長／
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y82295】舒適簡約U領短袖T恤250515</t>
-  </si>
-  <si>
-    <t>M：胸圍70、衣長52、肩寬38、下擺圍70、袖長11
-L：胸圍74、衣長53、肩寬39、下擺圍74、袖長12
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y82500】法式天然飄帶綁結2穿氣質仙女長洋裝250515</t>
-  </si>
-  <si>
-    <t>M：胸圍90、衣長132、腰圍106、袖長／、肩寬／
-L：胸圍94、衣長133、腰圍110、袖長／、肩寬／
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y5991】夏天高單簡約款棉麻收腰短袖襯衫洋裝（30%苎麻）250515</t>
-  </si>
-  <si>
-    <t>M：胸圍120、衣長121、腰圍116、袖長／、肩寬60
-L：胸圍124、衣長122、腰圍120、袖長／、肩寬61
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>【Y82315】高單夏天亞麻混棉落肩襯衫250515</t>
-  </si>
-  <si>
-    <t>M：胸圍114、衣長64、肩寬55 下擺圍104
-L：胸圍118、衣長65、肩寬56 下擺圍108
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>上衣：
-M：胸圍94、衣長72、肩寬63、下擺圍94
-L：胸圍98、衣長73、肩寬64下擺圍98
-褲子：
-M：腰圍 66、大腿圍 80、褲長 105
-L：腰圍70、大腿圍 82、褲長 106
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>M(上衣)：胸圍 90、衣長 58、肩寬 37
-L(上衣)：胸圍 94、衣長 59、肩寬 38
-M(半身裙)：腰圍 60、裙長 87
-L(半身裙)：腰圍 64、裙長 88
-誤差 1–3 公分為正常，以實物為準。</t>
-  </si>
-  <si>
-    <t>M(上衣)：胸圍 84、衣長 70、下擺圍 110
-L(上衣)：胸圍 88、衣長 71、下擺圍 114
-M(半身裙)：胸圍 84、裙長 110
-L(半身裙)：胸圍 88、裙長 114
+    <t>【cimYL785】實拍輕薄涼快莫代爾T恤250605</t>
+  </si>
+  <si>
+    <t>F：胸圍 82、肩寬 40、袖長 18、衣長 52
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2776】實拍小眾時髦簡約一片式設計繫帶洋裝250605</t>
+  </si>
+  <si>
+    <t>M：胸圍 92、腰圍 102、肩寬 32、裙長 120
+L：胸圍 96、腰圍 104、肩寬 33、裙長 122
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2770】實拍甜美無袖花邊壓褶背心250605</t>
+  </si>
+  <si>
+    <t>M：胸圍 102、肩寬 38、衣長 66
+L：胸圍 106、肩寬 38、衣長 68
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2769】實拍韓代款氣質圓領老錢風寬鬆上衣2769250605</t>
+  </si>
+  <si>
+    <t>M：胸圍 110、肩寬 55、袖長 25、衣長 77
+L：胸圍 114、肩寬 57、袖長 27、衣長 79
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2775】實拍高級極簡直筒側開叉裙（鬆緊腰）250605</t>
+  </si>
+  <si>
+    <t>M：腰圍 64-80、臀圍 92、裙長 92
+L：腰圍 66-82、臀圍 96、裙長 94
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2761】實拍韓國設計款廓形天然棉寬鬆上衣250605</t>
+  </si>
+  <si>
+    <t>M：胸圍 118、肩寬 57、衣長 69–77
+L：胸圍 122、肩寬 58、衣長 70–78
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim7701】實拍韓國高單老錢風亞麻天然闊腿褲250605</t>
+  </si>
+  <si>
+    <t>M：腰圍 68、臀圍 102、大腿圍 70、褲長 100
+L：腰圍 72、臀圍 106、大腿圍 74、褲長 102
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2756】實拍韓國簡約高級感娃娃衫250605</t>
+  </si>
+  <si>
+    <t>M：胸圍 94、衣長 71、肩寬 33
+L：胸圍 98、衣長 72、肩寬 34
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2758】實拍韓國設計感簡約扭結氣質長洋裝250605</t>
+  </si>
+  <si>
+    <t>短款：胸圍 94、腰圍 104、裙長 117、肩寬 32
+長款：胸圍 94、腰圍 104、裙長 127、肩寬 32
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2762】實拍法式後開叉心機簡約襯衫250605</t>
+  </si>
+  <si>
+    <t>M：胸圍 92、衣長 54、肩寬 47
+L：胸圍 96、衣長 55、肩寬 48
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2759】實拍夏日涼涼天然褶皺肌理A字休閒褲（鬆緊腰）250605</t>
+  </si>
+  <si>
+    <t>M：腰圍 66–72、臀圍 104、大腿圍 60、褲長 90
+L：腰圍 68–74、臀圍 108、大腿圍 64、褲長 91
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2760】實拍韓國氣質肌理收腰綁帶襯衫250605</t>
+  </si>
+  <si>
+    <t>M：胸圍 106、衣長 71、肩寬 69
+L：胸圍 110、衣長 72、肩寬 70
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2765】實拍韓國繫帶氣質天然上衣250605</t>
+  </si>
+  <si>
+    <t>M：胸圍 94、衣長 53–57、肩寬 37
+L：胸圍 98、衣長 53–57、肩寬 37
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2757】實拍法式慵懶點點雪紡闊腿褲（鬆緊腰，有口袋）250605</t>
+  </si>
+  <si>
+    <t>M：腰圍 60–72、臀圍 100、大腿圍 72、褲長 103
+L：腰圍 62–74、臀圍 104、大腿圍 76、褲長 104
+誤差 1–3 公分為正常，以實物為準。</t>
+  </si>
+  <si>
+    <t>【cim2755】實拍夏天氛圍感顯瘦混棉休閒褲（鬆緊腰，腰帶可拆）250605</t>
+  </si>
+  <si>
+    <t>M：腰圍 62–74、臀圍 104、大腿圍 82、褲長 94
+L：腰圍 64–76、臀圍 108、大腿圍 86、褲長 95
 誤差 1–3 公分為正常，以實物為準。</t>
   </si>
 </sst>
@@ -262,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,8 +204,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="PingFang TC"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +225,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFF2F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,10 +270,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,7 +565,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B29"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -683,256 +582,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="195.75">
-      <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>55</v>
+    <row r="2" spans="1:3" ht="63.75">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="141.75">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
+    <row r="3" spans="1:3" ht="89.25">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="173.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" ht="89.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="89.25">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="89.25">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="141.75">
-      <c r="A5" s="7" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="89.25">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="114.75">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="89.25">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="89.25">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="89.25">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="89.25">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="89.25">
+      <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="141.75">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="141.75">
-      <c r="A7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="141.75">
-      <c r="A8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="165.75">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="141.75">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="135">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="110.25">
-      <c r="A12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="141.75">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="141.75">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="89.25">
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="114.75">
+      <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="141.75">
-      <c r="A15" s="7" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="89.25">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="195.75">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="141.75">
-      <c r="A17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>46</v>
-      </c>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="141.75">
-      <c r="A18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>50</v>
-      </c>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="236.25">
-      <c r="A19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="236.25">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>23</v>
-      </c>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="141.75">
-      <c r="A21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="94.5">
-      <c r="A22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="94.5">
-      <c r="A23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>40</v>
-      </c>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="94.5">
-      <c r="A24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="94.5">
-      <c r="A25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>13</v>
-      </c>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="94.5">
-      <c r="A26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>5</v>
-      </c>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="94.5">
-      <c r="A27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="94.5">
-      <c r="A28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>15</v>
-      </c>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="78.75">
-      <c r="A29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>17</v>
-      </c>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
